--- a/Data/varsel_manad.xlsx
+++ b/Data/varsel_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1541">
   <si>
     <t xml:space="preserve">tid</t>
   </si>
@@ -4626,6 +4626,15 @@
   </si>
   <si>
     <t xml:space="preserve">april 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - maj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maj 2023</t>
   </si>
 </sst>
 </file>
@@ -15890,6 +15899,35 @@
         <v>1537</v>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B378" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378" t="n">
+        <v>84</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E378" t="s">
+        <v>36</v>
+      </c>
+      <c r="F378" t="s">
+        <v>36</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H378" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I378" t="s">
+        <v>1540</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/varsel_manad.xlsx
+++ b/Data/varsel_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1549">
   <si>
     <t xml:space="preserve">tid</t>
   </si>
@@ -4635,6 +4635,30 @@
   </si>
   <si>
     <t xml:space="preserve">maj 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jun 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juni 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jul 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juli 2023</t>
   </si>
 </sst>
 </file>
@@ -15928,6 +15952,64 @@
         <v>1540</v>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379" t="n">
+        <v>86</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E379" t="s">
+        <v>40</v>
+      </c>
+      <c r="F379" t="s">
+        <v>41</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H379" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I379" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B380" t="s">
+        <v>10</v>
+      </c>
+      <c r="C380" t="n">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E380" t="s">
+        <v>46</v>
+      </c>
+      <c r="F380" t="s">
+        <v>47</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H380" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I380" t="s">
+        <v>1548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/varsel_manad.xlsx
+++ b/Data/varsel_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1553">
   <si>
     <t xml:space="preserve">tid</t>
   </si>
@@ -4659,6 +4659,18 @@
   </si>
   <si>
     <t xml:space="preserve">juli 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aug 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">augusti 2023</t>
   </si>
 </sst>
 </file>
@@ -16010,6 +16022,35 @@
         <v>1548</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" t="n">
+        <v>82</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E381" t="s">
+        <v>52</v>
+      </c>
+      <c r="F381" t="s">
+        <v>53</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H381" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I381" t="s">
+        <v>1552</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/varsel_manad.xlsx
+++ b/Data/varsel_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1557">
   <si>
     <t xml:space="preserve">tid</t>
   </si>
@@ -4671,6 +4671,18 @@
   </si>
   <si>
     <t xml:space="preserve">augusti 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sep 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">september 2023</t>
   </si>
 </sst>
 </file>
@@ -16051,6 +16063,35 @@
         <v>1552</v>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" t="n">
+        <v>302</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E382" t="s">
+        <v>58</v>
+      </c>
+      <c r="F382" t="s">
+        <v>59</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H382" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I382" t="s">
+        <v>1556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/varsel_manad.xlsx
+++ b/Data/varsel_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1561">
   <si>
     <t xml:space="preserve">tid</t>
   </si>
@@ -4683,6 +4683,18 @@
   </si>
   <si>
     <t xml:space="preserve">september 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - okt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okt 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oktober 2023</t>
   </si>
 </sst>
 </file>
@@ -16092,6 +16104,35 @@
         <v>1556</v>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" t="n">
+        <v>87</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E383" t="s">
+        <v>64</v>
+      </c>
+      <c r="F383" t="s">
+        <v>65</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H383" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I383" t="s">
+        <v>1560</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/varsel_manad.xlsx
+++ b/Data/varsel_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1565">
   <si>
     <t xml:space="preserve">tid</t>
   </si>
@@ -4695,6 +4695,18 @@
   </si>
   <si>
     <t xml:space="preserve">oktober 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nov 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">november 2023</t>
   </si>
 </sst>
 </file>
@@ -16133,6 +16145,35 @@
         <v>1560</v>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384" t="n">
+        <v>99</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E384" t="s">
+        <v>70</v>
+      </c>
+      <c r="F384" t="s">
+        <v>71</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H384" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I384" t="s">
+        <v>1564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/varsel_manad.xlsx
+++ b/Data/varsel_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1569">
   <si>
     <t xml:space="preserve">tid</t>
   </si>
@@ -4707,6 +4707,18 @@
   </si>
   <si>
     <t xml:space="preserve">november 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 - dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dec 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">december 2023</t>
   </si>
 </sst>
 </file>
@@ -16174,6 +16186,35 @@
         <v>1564</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385" t="n">
+        <v>17</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E385" t="s">
+        <v>76</v>
+      </c>
+      <c r="F385" t="s">
+        <v>77</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H385" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I385" t="s">
+        <v>1568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/varsel_manad.xlsx
+++ b/Data/varsel_manad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1574">
   <si>
     <t xml:space="preserve">tid</t>
   </si>
@@ -4719,6 +4719,21 @@
   </si>
   <si>
     <t xml:space="preserve">december 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 - jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jan 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">januari 2024</t>
   </si>
 </sst>
 </file>
@@ -16215,6 +16230,35 @@
         <v>1568</v>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386" t="n">
+        <v>87</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E386" t="s">
+        <v>12</v>
+      </c>
+      <c r="F386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H386" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I386" t="s">
+        <v>1573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
